--- a/acervo separado/Acervo_Artigo_de_toalete.xlsx
+++ b/acervo separado/Acervo_Artigo_de_toalete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8049063-9C97-479D-B454-3FBD0A43C113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BEDD2A-DBC5-4D18-96CE-C388ED1BDAE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$9</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$9</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,9 +102,6 @@
     <t>Bom</t>
   </si>
   <si>
-    <t>Marfim</t>
-  </si>
-  <si>
     <t>Paris</t>
   </si>
   <si>
@@ -107,12 +111,6 @@
     <t>Objetos pessoais</t>
   </si>
   <si>
-    <t>Metal dourado</t>
-  </si>
-  <si>
-    <t>Vidro</t>
-  </si>
-  <si>
     <t>1441</t>
   </si>
   <si>
@@ -140,9 +138,6 @@
     <t>Abotoadeira de polaina</t>
   </si>
   <si>
-    <t>Resina e ferro niquelado</t>
-  </si>
-  <si>
     <t>16,1 cm</t>
   </si>
   <si>
@@ -152,9 +147,6 @@
     <t>Caixa de miudezas (sete peças de metal)</t>
   </si>
   <si>
-    <t>Folha de Flandres</t>
-  </si>
-  <si>
     <t>3,3 x 6,0 cm</t>
   </si>
   <si>
@@ -176,9 +168,6 @@
     <t>Porta-pó-de-arroz</t>
   </si>
   <si>
-    <t>Laca/metal</t>
-  </si>
-  <si>
     <t>4,3 x 8,6 cm</t>
   </si>
   <si>
@@ -197,9 +186,6 @@
     <t>Porta-agulha</t>
   </si>
   <si>
-    <t>Incrustado/ouro e tartaruga</t>
-  </si>
-  <si>
     <t>6,3 x 1,1 cm</t>
   </si>
   <si>
@@ -267,6 +253,27 @@
   </si>
   <si>
     <t>1,1 cm</t>
+  </si>
+  <si>
+    <t>mattec_303</t>
+  </si>
+  <si>
+    <t>mattec_264</t>
+  </si>
+  <si>
+    <t>mattec_107</t>
+  </si>
+  <si>
+    <t>mattec_189</t>
+  </si>
+  <si>
+    <t>mattec_146</t>
+  </si>
+  <si>
+    <t>mattec_181</t>
+  </si>
+  <si>
+    <t>mattec_143</t>
   </si>
 </sst>
 </file>
@@ -651,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -737,19 +744,19 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -757,22 +764,22 @@
         <v>1441</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -781,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -801,10 +808,10 @@
         <v>4,4 ccm</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -812,22 +819,22 @@
         <v>1386</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -836,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -856,13 +863,13 @@
         <v>1,7 xcm</v>
       </c>
       <c r="V3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -870,25 +877,25 @@
         <v>1452</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -897,7 +904,7 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>22</v>
@@ -909,10 +916,10 @@
         <v>21</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -920,25 +927,25 @@
         <v>1549</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -947,13 +954,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="0"/>
@@ -964,10 +971,10 @@
         <v>6,0 ccm</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -975,25 +982,25 @@
         <v>1432</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -1002,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>22</v>
@@ -1022,10 +1029,10 @@
         <v>4,5 ccm</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1033,25 +1040,25 @@
         <v>1372</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -1060,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
@@ -1080,10 +1087,10 @@
         <v>8,6 ccm</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1091,25 +1098,25 @@
         <v>1388</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -1118,7 +1125,7 @@
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>22</v>
@@ -1138,10 +1145,10 @@
         <v>2,5 ccm</v>
       </c>
       <c r="W8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="X8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1149,22 +1156,22 @@
         <v>1387</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1173,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
         <v>19</v>
@@ -1193,10 +1200,10 @@
         <v>1,1 ccm</v>
       </c>
       <c r="W9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
